--- a/hwrc-flatfile.xlsx
+++ b/hwrc-flatfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TomPassmore\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TomPassmore\Documents\GitHub\ctc21_waste_wizards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B9AD6C-7FA6-4FC5-A7FD-07DE832A2F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27496B77-802B-408C-838D-5D32E7B24477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62D1AE94-782C-4C8F-A583-8C9BAAD01B72}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7581" uniqueCount="4761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7756" uniqueCount="4936">
   <si>
     <t>hwrc-sct-ade-0020013</t>
   </si>
@@ -14328,6 +14328,531 @@
   </si>
   <si>
     <t>osmUrl</t>
+  </si>
+  <si>
+    <t>Q106081188</t>
+  </si>
+  <si>
+    <t>Q106081191</t>
+  </si>
+  <si>
+    <t>Q106081194</t>
+  </si>
+  <si>
+    <t>Q106085636</t>
+  </si>
+  <si>
+    <t>Q106085637</t>
+  </si>
+  <si>
+    <t>Q106085638</t>
+  </si>
+  <si>
+    <t>Q106085639</t>
+  </si>
+  <si>
+    <t>Q106085640</t>
+  </si>
+  <si>
+    <t>Q106085641</t>
+  </si>
+  <si>
+    <t>Q106085642</t>
+  </si>
+  <si>
+    <t>Q106085643</t>
+  </si>
+  <si>
+    <t>Q106085644</t>
+  </si>
+  <si>
+    <t>Q106085645</t>
+  </si>
+  <si>
+    <t>Q106085646</t>
+  </si>
+  <si>
+    <t>Q106085647</t>
+  </si>
+  <si>
+    <t>Q106085648</t>
+  </si>
+  <si>
+    <t>Q106085649</t>
+  </si>
+  <si>
+    <t>Q106085650</t>
+  </si>
+  <si>
+    <t>Q106085651</t>
+  </si>
+  <si>
+    <t>Q106085653</t>
+  </si>
+  <si>
+    <t>Q106085654</t>
+  </si>
+  <si>
+    <t>Q106085655</t>
+  </si>
+  <si>
+    <t>Q106085657</t>
+  </si>
+  <si>
+    <t>Q106085684</t>
+  </si>
+  <si>
+    <t>Q106085685</t>
+  </si>
+  <si>
+    <t>Q106085686</t>
+  </si>
+  <si>
+    <t>Q106085687</t>
+  </si>
+  <si>
+    <t>Q106085688</t>
+  </si>
+  <si>
+    <t>Q106085689</t>
+  </si>
+  <si>
+    <t>Q106085690</t>
+  </si>
+  <si>
+    <t>Q106085691</t>
+  </si>
+  <si>
+    <t>Q106085692</t>
+  </si>
+  <si>
+    <t>Q106085693</t>
+  </si>
+  <si>
+    <t>Q106085694</t>
+  </si>
+  <si>
+    <t>Q106085695</t>
+  </si>
+  <si>
+    <t>Q106085696</t>
+  </si>
+  <si>
+    <t>Q106085697</t>
+  </si>
+  <si>
+    <t>Q106085698</t>
+  </si>
+  <si>
+    <t>Q106085699</t>
+  </si>
+  <si>
+    <t>Q106085700</t>
+  </si>
+  <si>
+    <t>Q106085701</t>
+  </si>
+  <si>
+    <t>Q106085702</t>
+  </si>
+  <si>
+    <t>Q106085703</t>
+  </si>
+  <si>
+    <t>Q106085704</t>
+  </si>
+  <si>
+    <t>Q106085705</t>
+  </si>
+  <si>
+    <t>Q106085706</t>
+  </si>
+  <si>
+    <t>Q106085707</t>
+  </si>
+  <si>
+    <t>Q106085708</t>
+  </si>
+  <si>
+    <t>Q106085709</t>
+  </si>
+  <si>
+    <t>Q106085710</t>
+  </si>
+  <si>
+    <t>Q106085711</t>
+  </si>
+  <si>
+    <t>Q106085712</t>
+  </si>
+  <si>
+    <t>Q106085713</t>
+  </si>
+  <si>
+    <t>Q106085714</t>
+  </si>
+  <si>
+    <t>Q106085715</t>
+  </si>
+  <si>
+    <t>Q106085716</t>
+  </si>
+  <si>
+    <t>Q106085717</t>
+  </si>
+  <si>
+    <t>Q106085718</t>
+  </si>
+  <si>
+    <t>Q106085719</t>
+  </si>
+  <si>
+    <t>Q106085720</t>
+  </si>
+  <si>
+    <t>Q106085721</t>
+  </si>
+  <si>
+    <t>Q106085722</t>
+  </si>
+  <si>
+    <t>Q106085724</t>
+  </si>
+  <si>
+    <t>Q106085725</t>
+  </si>
+  <si>
+    <t>Q106085726</t>
+  </si>
+  <si>
+    <t>Q106085727</t>
+  </si>
+  <si>
+    <t>Q106085728</t>
+  </si>
+  <si>
+    <t>Q106085729</t>
+  </si>
+  <si>
+    <t>Q106085730</t>
+  </si>
+  <si>
+    <t>Q106085731</t>
+  </si>
+  <si>
+    <t>Q106085732</t>
+  </si>
+  <si>
+    <t>Q106085733</t>
+  </si>
+  <si>
+    <t>Q106085734</t>
+  </si>
+  <si>
+    <t>Q106085735</t>
+  </si>
+  <si>
+    <t>Q106085736</t>
+  </si>
+  <si>
+    <t>Q106085737</t>
+  </si>
+  <si>
+    <t>Q106085738</t>
+  </si>
+  <si>
+    <t>Q106085740</t>
+  </si>
+  <si>
+    <t>Q106085741</t>
+  </si>
+  <si>
+    <t>Q106085742</t>
+  </si>
+  <si>
+    <t>Q106085743</t>
+  </si>
+  <si>
+    <t>Q106085776</t>
+  </si>
+  <si>
+    <t>Q106085777</t>
+  </si>
+  <si>
+    <t>Q106085779</t>
+  </si>
+  <si>
+    <t>Q106085781</t>
+  </si>
+  <si>
+    <t>Q106085784</t>
+  </si>
+  <si>
+    <t>Q106085785</t>
+  </si>
+  <si>
+    <t>Q106085786</t>
+  </si>
+  <si>
+    <t>Q106085787</t>
+  </si>
+  <si>
+    <t>Q106085788</t>
+  </si>
+  <si>
+    <t>Q106085789</t>
+  </si>
+  <si>
+    <t>Q106085790</t>
+  </si>
+  <si>
+    <t>Q106085791</t>
+  </si>
+  <si>
+    <t>Q106085792</t>
+  </si>
+  <si>
+    <t>Q106085793</t>
+  </si>
+  <si>
+    <t>Q106085795</t>
+  </si>
+  <si>
+    <t>Q106085796</t>
+  </si>
+  <si>
+    <t>Q106085797</t>
+  </si>
+  <si>
+    <t>Q106085798</t>
+  </si>
+  <si>
+    <t>Q106085799</t>
+  </si>
+  <si>
+    <t>Q106085800</t>
+  </si>
+  <si>
+    <t>Q106085806</t>
+  </si>
+  <si>
+    <t>Q106085808</t>
+  </si>
+  <si>
+    <t>Q106085813</t>
+  </si>
+  <si>
+    <t>Q106085817</t>
+  </si>
+  <si>
+    <t>Q106085818</t>
+  </si>
+  <si>
+    <t>Q106085819</t>
+  </si>
+  <si>
+    <t>Q106085820</t>
+  </si>
+  <si>
+    <t>Q106085821</t>
+  </si>
+  <si>
+    <t>Q106085822</t>
+  </si>
+  <si>
+    <t>Q106085824</t>
+  </si>
+  <si>
+    <t>Q106085825</t>
+  </si>
+  <si>
+    <t>Q106085826</t>
+  </si>
+  <si>
+    <t>Q106085827</t>
+  </si>
+  <si>
+    <t>Q106085828</t>
+  </si>
+  <si>
+    <t>Q106085829</t>
+  </si>
+  <si>
+    <t>Q106085830</t>
+  </si>
+  <si>
+    <t>Q106085831</t>
+  </si>
+  <si>
+    <t>Q106085832</t>
+  </si>
+  <si>
+    <t>Q106085834</t>
+  </si>
+  <si>
+    <t>Q106085835</t>
+  </si>
+  <si>
+    <t>Q106085836</t>
+  </si>
+  <si>
+    <t>Q106085837</t>
+  </si>
+  <si>
+    <t>Q106085838</t>
+  </si>
+  <si>
+    <t>Q106085840</t>
+  </si>
+  <si>
+    <t>Q106085841</t>
+  </si>
+  <si>
+    <t>Q106085842</t>
+  </si>
+  <si>
+    <t>Q106085843</t>
+  </si>
+  <si>
+    <t>Q106085844</t>
+  </si>
+  <si>
+    <t>Q106085845</t>
+  </si>
+  <si>
+    <t>Q106085846</t>
+  </si>
+  <si>
+    <t>Q106085847</t>
+  </si>
+  <si>
+    <t>Q106085848</t>
+  </si>
+  <si>
+    <t>Q106085849</t>
+  </si>
+  <si>
+    <t>Q106085850</t>
+  </si>
+  <si>
+    <t>Q106085851</t>
+  </si>
+  <si>
+    <t>Q106085852</t>
+  </si>
+  <si>
+    <t>Q106085853</t>
+  </si>
+  <si>
+    <t>Q106085855</t>
+  </si>
+  <si>
+    <t>Q106085856</t>
+  </si>
+  <si>
+    <t>Q106085857</t>
+  </si>
+  <si>
+    <t>Q106085858</t>
+  </si>
+  <si>
+    <t>Q106085859</t>
+  </si>
+  <si>
+    <t>Q106085860</t>
+  </si>
+  <si>
+    <t>Q106085861</t>
+  </si>
+  <si>
+    <t>Q106085862</t>
+  </si>
+  <si>
+    <t>Q106085878</t>
+  </si>
+  <si>
+    <t>Q106085879</t>
+  </si>
+  <si>
+    <t>Q106085881</t>
+  </si>
+  <si>
+    <t>Q106085882</t>
+  </si>
+  <si>
+    <t>Q106085883</t>
+  </si>
+  <si>
+    <t>Q106085884</t>
+  </si>
+  <si>
+    <t>Q106085885</t>
+  </si>
+  <si>
+    <t>Q106085886</t>
+  </si>
+  <si>
+    <t>Q106085887</t>
+  </si>
+  <si>
+    <t>Q106085888</t>
+  </si>
+  <si>
+    <t>Q106085889</t>
+  </si>
+  <si>
+    <t>Q106085891</t>
+  </si>
+  <si>
+    <t>Q106085892</t>
+  </si>
+  <si>
+    <t>Q106085893</t>
+  </si>
+  <si>
+    <t>Q106085894</t>
+  </si>
+  <si>
+    <t>Q106085895</t>
+  </si>
+  <si>
+    <t>Q106085897</t>
+  </si>
+  <si>
+    <t>Q106085899</t>
+  </si>
+  <si>
+    <t>Q106085900</t>
+  </si>
+  <si>
+    <t>Q106085901</t>
+  </si>
+  <si>
+    <t>Q106085902</t>
+  </si>
+  <si>
+    <t>Q106085904</t>
+  </si>
+  <si>
+    <t>Q106085905</t>
+  </si>
+  <si>
+    <t>Q106085906</t>
+  </si>
+  <si>
+    <t>Q106085907</t>
+  </si>
+  <si>
+    <t>Q106085909</t>
+  </si>
+  <si>
+    <t>Q106085910</t>
+  </si>
+  <si>
+    <t>Q106085911</t>
+  </si>
+  <si>
+    <t>Q106085913</t>
   </si>
 </sst>
 </file>
@@ -14680,15 +15205,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA0FEE0-FE0C-46E5-BF96-5E1A1B8A14CB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AN841"/>
+  <dimension ref="A1:AO841"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4721</v>
       </c>
@@ -14806,11 +15331,11 @@
       <c r="AM1" t="s">
         <v>4759</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>4760</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14859,11 +15384,15 @@
       <c r="AM2" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" t="str">
+        <f>"https://www.wikidata.org/wiki/"&amp;AM2</f>
+        <v>https://www.wikidata.org/wiki/Q102132154</v>
+      </c>
+      <c r="AO2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14912,11 +15441,15 @@
       <c r="AM3" t="s">
         <v>19</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" t="str">
+        <f t="shared" ref="AN3:AN66" si="0">"https://www.wikidata.org/wiki/"&amp;AM3</f>
+        <v>https://www.wikidata.org/wiki/Q102132282</v>
+      </c>
+      <c r="AO3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14965,11 +15498,15 @@
       <c r="AM4" t="s">
         <v>27</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q102132382</v>
+      </c>
+      <c r="AO4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15018,11 +15555,15 @@
       <c r="AM5" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q102132643</v>
+      </c>
+      <c r="AO5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15051,7 +15592,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15091,11 +15632,18 @@
       <c r="AJ7">
         <v>44275</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AM7" t="s">
+        <v>4761</v>
+      </c>
+      <c r="AN7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106081188</v>
+      </c>
+      <c r="AO7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15141,11 +15689,18 @@
       <c r="AJ8">
         <v>44275</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AM8" t="s">
+        <v>4762</v>
+      </c>
+      <c r="AN8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106081191</v>
+      </c>
+      <c r="AO8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15191,11 +15746,18 @@
       <c r="AJ9">
         <v>44275</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AM9" t="s">
+        <v>4763</v>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106081194</v>
+      </c>
+      <c r="AO9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15241,11 +15803,18 @@
       <c r="AJ10">
         <v>44275</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AM10" t="s">
+        <v>4764</v>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085636</v>
+      </c>
+      <c r="AO10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15291,11 +15860,18 @@
       <c r="AJ11">
         <v>44275</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AM11" t="s">
+        <v>4765</v>
+      </c>
+      <c r="AN11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085637</v>
+      </c>
+      <c r="AO11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15341,11 +15917,18 @@
       <c r="AJ12">
         <v>44275</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AM12" t="s">
+        <v>4766</v>
+      </c>
+      <c r="AN12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085638</v>
+      </c>
+      <c r="AO12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15391,11 +15974,18 @@
       <c r="AJ13">
         <v>44275</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AM13" t="s">
+        <v>4767</v>
+      </c>
+      <c r="AN13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085639</v>
+      </c>
+      <c r="AO13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15441,11 +16031,18 @@
       <c r="AJ14">
         <v>44275</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AM14" t="s">
+        <v>4768</v>
+      </c>
+      <c r="AN14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085640</v>
+      </c>
+      <c r="AO14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15491,11 +16088,18 @@
       <c r="AJ15">
         <v>44275</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AM15" t="s">
+        <v>4769</v>
+      </c>
+      <c r="AN15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085641</v>
+      </c>
+      <c r="AO15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15541,11 +16145,18 @@
       <c r="AJ16">
         <v>44275</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AM16" t="s">
+        <v>4770</v>
+      </c>
+      <c r="AN16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085642</v>
+      </c>
+      <c r="AO16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15591,11 +16202,18 @@
       <c r="AJ17">
         <v>44275</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AM17" t="s">
+        <v>4771</v>
+      </c>
+      <c r="AN17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085643</v>
+      </c>
+      <c r="AO17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15641,11 +16259,18 @@
       <c r="AJ18">
         <v>44275</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AM18" t="s">
+        <v>4772</v>
+      </c>
+      <c r="AN18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085644</v>
+      </c>
+      <c r="AO18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15691,11 +16316,18 @@
       <c r="AJ19">
         <v>44275</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AM19" t="s">
+        <v>4773</v>
+      </c>
+      <c r="AN19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085645</v>
+      </c>
+      <c r="AO19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15741,11 +16373,18 @@
       <c r="AJ20">
         <v>44275</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AM20" t="s">
+        <v>4774</v>
+      </c>
+      <c r="AN20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085646</v>
+      </c>
+      <c r="AO20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15785,8 +16424,15 @@
       <c r="AJ21">
         <v>44275</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM21" t="s">
+        <v>4775</v>
+      </c>
+      <c r="AN21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15823,8 +16469,15 @@
       <c r="AJ22">
         <v>44275</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM22" t="s">
+        <v>4776</v>
+      </c>
+      <c r="AN22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15858,8 +16511,15 @@
       <c r="AJ23">
         <v>44275</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM23" t="s">
+        <v>4777</v>
+      </c>
+      <c r="AN23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15893,8 +16553,15 @@
       <c r="AJ24">
         <v>44275</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM24" t="s">
+        <v>4778</v>
+      </c>
+      <c r="AN24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15928,8 +16595,15 @@
       <c r="AJ25">
         <v>44275</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM25" t="s">
+        <v>4779</v>
+      </c>
+      <c r="AN25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15963,8 +16637,15 @@
       <c r="AJ26">
         <v>44275</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM26" t="s">
+        <v>4780</v>
+      </c>
+      <c r="AN26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15998,8 +16679,15 @@
       <c r="AJ27">
         <v>44275</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM27" t="s">
+        <v>4781</v>
+      </c>
+      <c r="AN27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16033,8 +16721,15 @@
       <c r="AJ28">
         <v>44275</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM28" t="s">
+        <v>4782</v>
+      </c>
+      <c r="AN28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16068,8 +16763,15 @@
       <c r="AJ29">
         <v>44275</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM29" t="s">
+        <v>4783</v>
+      </c>
+      <c r="AN29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16103,8 +16805,15 @@
       <c r="AJ30">
         <v>44275</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM30" t="s">
+        <v>4784</v>
+      </c>
+      <c r="AN30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16138,8 +16847,15 @@
       <c r="AJ31">
         <v>44275</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM31" t="s">
+        <v>4785</v>
+      </c>
+      <c r="AN31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16173,8 +16889,15 @@
       <c r="AJ32">
         <v>44275</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM32" t="s">
+        <v>4786</v>
+      </c>
+      <c r="AN32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16208,8 +16931,15 @@
       <c r="AJ33">
         <v>44275</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM33" t="s">
+        <v>4787</v>
+      </c>
+      <c r="AN33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -16243,8 +16973,15 @@
       <c r="AJ34">
         <v>44275</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM34" t="s">
+        <v>4788</v>
+      </c>
+      <c r="AN34" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -16278,8 +17015,15 @@
       <c r="AJ35">
         <v>44275</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM35" t="s">
+        <v>4789</v>
+      </c>
+      <c r="AN35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -16313,8 +17057,15 @@
       <c r="AJ36">
         <v>44275</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM36" t="s">
+        <v>4790</v>
+      </c>
+      <c r="AN36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085690</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16348,8 +17099,15 @@
       <c r="AJ37">
         <v>44275</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM37" t="s">
+        <v>4791</v>
+      </c>
+      <c r="AN37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16383,8 +17141,15 @@
       <c r="AJ38">
         <v>44275</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM38" t="s">
+        <v>4792</v>
+      </c>
+      <c r="AN38" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16418,8 +17183,15 @@
       <c r="AJ39">
         <v>44275</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM39" t="s">
+        <v>4793</v>
+      </c>
+      <c r="AN39" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16453,8 +17225,15 @@
       <c r="AJ40">
         <v>44275</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM40" t="s">
+        <v>4794</v>
+      </c>
+      <c r="AN40" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16488,8 +17267,15 @@
       <c r="AJ41">
         <v>44275</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM41" t="s">
+        <v>4795</v>
+      </c>
+      <c r="AN41" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16523,8 +17309,15 @@
       <c r="AJ42">
         <v>44275</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM42" t="s">
+        <v>4796</v>
+      </c>
+      <c r="AN42" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16558,8 +17351,15 @@
       <c r="AJ43">
         <v>44275</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM43" t="s">
+        <v>4797</v>
+      </c>
+      <c r="AN43" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16593,8 +17393,15 @@
       <c r="AJ44">
         <v>44275</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM44" t="s">
+        <v>4798</v>
+      </c>
+      <c r="AN44" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16628,8 +17435,15 @@
       <c r="AJ45">
         <v>44275</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM45" t="s">
+        <v>4799</v>
+      </c>
+      <c r="AN45" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16663,8 +17477,15 @@
       <c r="AJ46">
         <v>44275</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM46" t="s">
+        <v>4800</v>
+      </c>
+      <c r="AN46" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16698,8 +17519,15 @@
       <c r="AJ47">
         <v>44275</v>
       </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM47" t="s">
+        <v>4801</v>
+      </c>
+      <c r="AN47" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16733,8 +17561,15 @@
       <c r="AJ48">
         <v>44275</v>
       </c>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM48" t="s">
+        <v>4802</v>
+      </c>
+      <c r="AN48" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16768,8 +17603,15 @@
       <c r="AJ49">
         <v>44275</v>
       </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM49" t="s">
+        <v>4803</v>
+      </c>
+      <c r="AN49" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -16803,8 +17645,15 @@
       <c r="AJ50">
         <v>44275</v>
       </c>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM50" t="s">
+        <v>4804</v>
+      </c>
+      <c r="AN50" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16838,8 +17687,15 @@
       <c r="AJ51">
         <v>44275</v>
       </c>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM51" t="s">
+        <v>4805</v>
+      </c>
+      <c r="AN51" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16873,8 +17729,15 @@
       <c r="AJ52">
         <v>44275</v>
       </c>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM52" t="s">
+        <v>4806</v>
+      </c>
+      <c r="AN52" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16908,8 +17771,15 @@
       <c r="AJ53">
         <v>44275</v>
       </c>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM53" t="s">
+        <v>4807</v>
+      </c>
+      <c r="AN53" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -16943,8 +17813,15 @@
       <c r="AJ54">
         <v>44275</v>
       </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM54" t="s">
+        <v>4808</v>
+      </c>
+      <c r="AN54" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -16978,8 +17855,15 @@
       <c r="AJ55">
         <v>44275</v>
       </c>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM55" t="s">
+        <v>4809</v>
+      </c>
+      <c r="AN55" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17013,8 +17897,15 @@
       <c r="AJ56">
         <v>44275</v>
       </c>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM56" t="s">
+        <v>4810</v>
+      </c>
+      <c r="AN56" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085710</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17048,8 +17939,15 @@
       <c r="AJ57">
         <v>44275</v>
       </c>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM57" t="s">
+        <v>4811</v>
+      </c>
+      <c r="AN57" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17083,8 +17981,15 @@
       <c r="AJ58">
         <v>44275</v>
       </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM58" t="s">
+        <v>4812</v>
+      </c>
+      <c r="AN58" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17118,8 +18023,15 @@
       <c r="AJ59">
         <v>44275</v>
       </c>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM59" t="s">
+        <v>4813</v>
+      </c>
+      <c r="AN59" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17153,8 +18065,15 @@
       <c r="AJ60">
         <v>44275</v>
       </c>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM60" t="s">
+        <v>4814</v>
+      </c>
+      <c r="AN60" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17188,8 +18107,15 @@
       <c r="AJ61">
         <v>44275</v>
       </c>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM61" t="s">
+        <v>4815</v>
+      </c>
+      <c r="AN61" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17223,8 +18149,15 @@
       <c r="AJ62">
         <v>44275</v>
       </c>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM62" t="s">
+        <v>4816</v>
+      </c>
+      <c r="AN62" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17258,8 +18191,15 @@
       <c r="AJ63">
         <v>44275</v>
       </c>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM63" t="s">
+        <v>4817</v>
+      </c>
+      <c r="AN63" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17293,8 +18233,15 @@
       <c r="AJ64">
         <v>44275</v>
       </c>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM64" t="s">
+        <v>4818</v>
+      </c>
+      <c r="AN64" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17328,8 +18275,15 @@
       <c r="AJ65">
         <v>44275</v>
       </c>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM65" t="s">
+        <v>4819</v>
+      </c>
+      <c r="AN65" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17363,8 +18317,15 @@
       <c r="AJ66">
         <v>44275</v>
       </c>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM66" t="s">
+        <v>4820</v>
+      </c>
+      <c r="AN66" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.wikidata.org/wiki/Q106085720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -17398,8 +18359,15 @@
       <c r="AJ67">
         <v>44275</v>
       </c>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM67" t="s">
+        <v>4821</v>
+      </c>
+      <c r="AN67" t="str">
+        <f t="shared" ref="AN67:AN130" si="1">"https://www.wikidata.org/wiki/"&amp;AM67</f>
+        <v>https://www.wikidata.org/wiki/Q106085721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -17433,8 +18401,15 @@
       <c r="AJ68">
         <v>44275</v>
       </c>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM68" t="s">
+        <v>4822</v>
+      </c>
+      <c r="AN68" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -17468,8 +18443,15 @@
       <c r="AJ69">
         <v>44275</v>
       </c>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM69" t="s">
+        <v>4823</v>
+      </c>
+      <c r="AN69" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -17503,8 +18485,15 @@
       <c r="AJ70">
         <v>44275</v>
       </c>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM70" t="s">
+        <v>4824</v>
+      </c>
+      <c r="AN70" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085725</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -17538,8 +18527,15 @@
       <c r="AJ71">
         <v>44275</v>
       </c>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM71" t="s">
+        <v>4825</v>
+      </c>
+      <c r="AN71" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085726</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -17573,8 +18569,15 @@
       <c r="AJ72">
         <v>44275</v>
       </c>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM72" t="s">
+        <v>4826</v>
+      </c>
+      <c r="AN72" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085727</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -17608,8 +18611,15 @@
       <c r="AJ73">
         <v>44275</v>
       </c>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM73" t="s">
+        <v>4827</v>
+      </c>
+      <c r="AN73" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -17643,8 +18653,15 @@
       <c r="AJ74">
         <v>44275</v>
       </c>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM74" t="s">
+        <v>4828</v>
+      </c>
+      <c r="AN74" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17678,8 +18695,15 @@
       <c r="AJ75">
         <v>44275</v>
       </c>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM75" t="s">
+        <v>4829</v>
+      </c>
+      <c r="AN75" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17713,8 +18737,15 @@
       <c r="AJ76">
         <v>44275</v>
       </c>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM76" t="s">
+        <v>4830</v>
+      </c>
+      <c r="AN76" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -17748,8 +18779,15 @@
       <c r="AJ77">
         <v>44275</v>
       </c>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM77" t="s">
+        <v>4831</v>
+      </c>
+      <c r="AN77" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -17783,8 +18821,15 @@
       <c r="AJ78">
         <v>44275</v>
       </c>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM78" t="s">
+        <v>4832</v>
+      </c>
+      <c r="AN78" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -17818,8 +18863,15 @@
       <c r="AJ79">
         <v>44275</v>
       </c>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM79" t="s">
+        <v>4833</v>
+      </c>
+      <c r="AN79" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -17853,8 +18905,15 @@
       <c r="AJ80">
         <v>44275</v>
       </c>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM80" t="s">
+        <v>4834</v>
+      </c>
+      <c r="AN80" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -17888,8 +18947,15 @@
       <c r="AJ81">
         <v>44275</v>
       </c>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM81" t="s">
+        <v>4835</v>
+      </c>
+      <c r="AN81" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -17923,8 +18989,15 @@
       <c r="AJ82">
         <v>44275</v>
       </c>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM82" t="s">
+        <v>4836</v>
+      </c>
+      <c r="AN82" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -17958,8 +19031,15 @@
       <c r="AJ83">
         <v>44275</v>
       </c>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM83" t="s">
+        <v>4837</v>
+      </c>
+      <c r="AN83" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085738</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -17993,8 +19073,15 @@
       <c r="AJ84">
         <v>44275</v>
       </c>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM84" t="s">
+        <v>4838</v>
+      </c>
+      <c r="AN84" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085740</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -18028,8 +19115,15 @@
       <c r="AJ85">
         <v>44275</v>
       </c>
-    </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM85" t="s">
+        <v>4839</v>
+      </c>
+      <c r="AN85" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085741</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -18063,8 +19157,15 @@
       <c r="AJ86">
         <v>44275</v>
       </c>
-    </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM86" t="s">
+        <v>4840</v>
+      </c>
+      <c r="AN86" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -18098,8 +19199,15 @@
       <c r="AJ87">
         <v>44275</v>
       </c>
-    </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM87" t="s">
+        <v>4841</v>
+      </c>
+      <c r="AN87" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -18133,8 +19241,15 @@
       <c r="AJ88">
         <v>44275</v>
       </c>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM88" t="s">
+        <v>4842</v>
+      </c>
+      <c r="AN88" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085776</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -18168,8 +19283,15 @@
       <c r="AJ89">
         <v>44275</v>
       </c>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM89" t="s">
+        <v>4843</v>
+      </c>
+      <c r="AN89" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -18203,8 +19325,15 @@
       <c r="AJ90">
         <v>44275</v>
       </c>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM90" t="s">
+        <v>4844</v>
+      </c>
+      <c r="AN90" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085779</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -18238,8 +19367,15 @@
       <c r="AJ91">
         <v>44275</v>
       </c>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM91" t="s">
+        <v>4845</v>
+      </c>
+      <c r="AN91" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085781</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -18273,8 +19409,15 @@
       <c r="AJ92">
         <v>44275</v>
       </c>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM92" t="s">
+        <v>4846</v>
+      </c>
+      <c r="AN92" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085784</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -18308,8 +19451,15 @@
       <c r="AJ93">
         <v>44275</v>
       </c>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM93" t="s">
+        <v>4847</v>
+      </c>
+      <c r="AN93" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085785</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -18343,8 +19493,15 @@
       <c r="AJ94">
         <v>44275</v>
       </c>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM94" t="s">
+        <v>4848</v>
+      </c>
+      <c r="AN94" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085786</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -18378,8 +19535,15 @@
       <c r="AJ95">
         <v>44275</v>
       </c>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM95" t="s">
+        <v>4849</v>
+      </c>
+      <c r="AN95" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085787</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -18413,8 +19577,15 @@
       <c r="AJ96">
         <v>44275</v>
       </c>
-    </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM96" t="s">
+        <v>4850</v>
+      </c>
+      <c r="AN96" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085788</v>
+      </c>
+    </row>
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -18448,8 +19619,15 @@
       <c r="AJ97">
         <v>44275</v>
       </c>
-    </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM97" t="s">
+        <v>4851</v>
+      </c>
+      <c r="AN97" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085789</v>
+      </c>
+    </row>
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -18483,8 +19661,15 @@
       <c r="AJ98">
         <v>44275</v>
       </c>
-    </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM98" t="s">
+        <v>4852</v>
+      </c>
+      <c r="AN98" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085790</v>
+      </c>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -18518,8 +19703,15 @@
       <c r="AJ99">
         <v>44275</v>
       </c>
-    </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM99" t="s">
+        <v>4853</v>
+      </c>
+      <c r="AN99" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085791</v>
+      </c>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -18553,8 +19745,15 @@
       <c r="AJ100">
         <v>44275</v>
       </c>
-    </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM100" t="s">
+        <v>4854</v>
+      </c>
+      <c r="AN100" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085792</v>
+      </c>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -18588,8 +19787,15 @@
       <c r="AJ101">
         <v>44275</v>
       </c>
-    </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM101" t="s">
+        <v>4855</v>
+      </c>
+      <c r="AN101" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085793</v>
+      </c>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -18623,8 +19829,15 @@
       <c r="AJ102">
         <v>44275</v>
       </c>
-    </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM102" t="s">
+        <v>4856</v>
+      </c>
+      <c r="AN102" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085795</v>
+      </c>
+    </row>
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -18658,8 +19871,15 @@
       <c r="AJ103">
         <v>44275</v>
       </c>
-    </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM103" t="s">
+        <v>4857</v>
+      </c>
+      <c r="AN103" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085796</v>
+      </c>
+    </row>
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -18693,8 +19913,15 @@
       <c r="AJ104">
         <v>44275</v>
       </c>
-    </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM104" t="s">
+        <v>4858</v>
+      </c>
+      <c r="AN104" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085797</v>
+      </c>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -18728,8 +19955,15 @@
       <c r="AJ105">
         <v>44275</v>
       </c>
-    </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM105" t="s">
+        <v>4859</v>
+      </c>
+      <c r="AN105" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085798</v>
+      </c>
+    </row>
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -18763,8 +19997,15 @@
       <c r="AJ106">
         <v>44275</v>
       </c>
-    </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM106" t="s">
+        <v>4860</v>
+      </c>
+      <c r="AN106" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085799</v>
+      </c>
+    </row>
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -18798,8 +20039,15 @@
       <c r="AJ107">
         <v>44275</v>
       </c>
-    </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM107" t="s">
+        <v>4861</v>
+      </c>
+      <c r="AN107" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -18833,8 +20081,15 @@
       <c r="AJ108">
         <v>44275</v>
       </c>
-    </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM108" t="s">
+        <v>4862</v>
+      </c>
+      <c r="AN108" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085806</v>
+      </c>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -18868,8 +20123,15 @@
       <c r="AJ109">
         <v>44275</v>
       </c>
-    </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM109" t="s">
+        <v>4863</v>
+      </c>
+      <c r="AN109" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085808</v>
+      </c>
+    </row>
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -18903,8 +20165,15 @@
       <c r="AJ110">
         <v>44275</v>
       </c>
-    </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM110" t="s">
+        <v>4864</v>
+      </c>
+      <c r="AN110" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085813</v>
+      </c>
+    </row>
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -18938,8 +20207,15 @@
       <c r="AJ111">
         <v>44275</v>
       </c>
-    </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM111" t="s">
+        <v>4865</v>
+      </c>
+      <c r="AN111" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085817</v>
+      </c>
+    </row>
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -18973,8 +20249,15 @@
       <c r="AJ112">
         <v>44275</v>
       </c>
-    </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM112" t="s">
+        <v>4866</v>
+      </c>
+      <c r="AN112" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085818</v>
+      </c>
+    </row>
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -19008,8 +20291,15 @@
       <c r="AJ113">
         <v>44275</v>
       </c>
-    </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM113" t="s">
+        <v>4867</v>
+      </c>
+      <c r="AN113" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085819</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -19043,8 +20333,15 @@
       <c r="AJ114">
         <v>44275</v>
       </c>
-    </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM114" t="s">
+        <v>4868</v>
+      </c>
+      <c r="AN114" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085820</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -19078,8 +20375,15 @@
       <c r="AJ115">
         <v>44275</v>
       </c>
-    </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM115" t="s">
+        <v>4869</v>
+      </c>
+      <c r="AN115" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085821</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -19113,8 +20417,15 @@
       <c r="AJ116">
         <v>44275</v>
       </c>
-    </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM116" t="s">
+        <v>4870</v>
+      </c>
+      <c r="AN116" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085822</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -19148,8 +20459,15 @@
       <c r="AJ117">
         <v>44275</v>
       </c>
-    </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM117" t="s">
+        <v>4871</v>
+      </c>
+      <c r="AN117" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085824</v>
+      </c>
+    </row>
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19183,8 +20501,15 @@
       <c r="AJ118">
         <v>44275</v>
       </c>
-    </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM118" t="s">
+        <v>4872</v>
+      </c>
+      <c r="AN118" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085825</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19218,8 +20543,15 @@
       <c r="AJ119">
         <v>44275</v>
       </c>
-    </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM119" t="s">
+        <v>4873</v>
+      </c>
+      <c r="AN119" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085826</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -19253,8 +20585,15 @@
       <c r="AJ120">
         <v>44275</v>
       </c>
-    </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM120" t="s">
+        <v>4874</v>
+      </c>
+      <c r="AN120" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085827</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -19288,8 +20627,15 @@
       <c r="AJ121">
         <v>44275</v>
       </c>
-    </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM121" t="s">
+        <v>4875</v>
+      </c>
+      <c r="AN121" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085828</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -19323,8 +20669,15 @@
       <c r="AJ122">
         <v>44275</v>
       </c>
-    </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM122" t="s">
+        <v>4876</v>
+      </c>
+      <c r="AN122" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085829</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -19358,8 +20711,15 @@
       <c r="AJ123">
         <v>44275</v>
       </c>
-    </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM123" t="s">
+        <v>4877</v>
+      </c>
+      <c r="AN123" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085830</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -19393,8 +20753,15 @@
       <c r="AJ124">
         <v>44275</v>
       </c>
-    </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM124" t="s">
+        <v>4878</v>
+      </c>
+      <c r="AN124" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085831</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -19428,8 +20795,15 @@
       <c r="AJ125">
         <v>44275</v>
       </c>
-    </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM125" t="s">
+        <v>4879</v>
+      </c>
+      <c r="AN125" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085832</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -19463,8 +20837,15 @@
       <c r="AJ126">
         <v>44275</v>
       </c>
-    </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM126" t="s">
+        <v>4880</v>
+      </c>
+      <c r="AN126" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085834</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -19498,8 +20879,15 @@
       <c r="AJ127">
         <v>44275</v>
       </c>
-    </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM127" t="s">
+        <v>4881</v>
+      </c>
+      <c r="AN127" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085835</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -19533,8 +20921,15 @@
       <c r="AJ128">
         <v>44275</v>
       </c>
-    </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM128" t="s">
+        <v>4882</v>
+      </c>
+      <c r="AN128" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085836</v>
+      </c>
+    </row>
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -19568,8 +20963,15 @@
       <c r="AJ129">
         <v>44275</v>
       </c>
-    </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM129" t="s">
+        <v>4883</v>
+      </c>
+      <c r="AN129" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085837</v>
+      </c>
+    </row>
+    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -19603,8 +21005,15 @@
       <c r="AJ130">
         <v>44275</v>
       </c>
-    </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM130" t="s">
+        <v>4884</v>
+      </c>
+      <c r="AN130" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.wikidata.org/wiki/Q106085838</v>
+      </c>
+    </row>
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -19638,8 +21047,15 @@
       <c r="AJ131">
         <v>44275</v>
       </c>
-    </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM131" t="s">
+        <v>4885</v>
+      </c>
+      <c r="AN131" t="str">
+        <f t="shared" ref="AN131:AN194" si="2">"https://www.wikidata.org/wiki/"&amp;AM131</f>
+        <v>https://www.wikidata.org/wiki/Q106085840</v>
+      </c>
+    </row>
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -19673,8 +21089,15 @@
       <c r="AJ132">
         <v>44275</v>
       </c>
-    </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM132" t="s">
+        <v>4886</v>
+      </c>
+      <c r="AN132" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085841</v>
+      </c>
+    </row>
+    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -19708,8 +21131,15 @@
       <c r="AJ133">
         <v>44275</v>
       </c>
-    </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM133" t="s">
+        <v>4887</v>
+      </c>
+      <c r="AN133" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085842</v>
+      </c>
+    </row>
+    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -19743,8 +21173,15 @@
       <c r="AJ134">
         <v>44275</v>
       </c>
-    </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM134" t="s">
+        <v>4888</v>
+      </c>
+      <c r="AN134" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085843</v>
+      </c>
+    </row>
+    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -19778,8 +21215,15 @@
       <c r="AJ135">
         <v>44275</v>
       </c>
-    </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM135" t="s">
+        <v>4889</v>
+      </c>
+      <c r="AN135" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085844</v>
+      </c>
+    </row>
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -19813,8 +21257,15 @@
       <c r="AJ136">
         <v>44275</v>
       </c>
-    </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM136" t="s">
+        <v>4890</v>
+      </c>
+      <c r="AN136" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085845</v>
+      </c>
+    </row>
+    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -19848,8 +21299,15 @@
       <c r="AJ137">
         <v>44275</v>
       </c>
-    </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM137" t="s">
+        <v>4891</v>
+      </c>
+      <c r="AN137" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085846</v>
+      </c>
+    </row>
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -19883,8 +21341,15 @@
       <c r="AJ138">
         <v>44275</v>
       </c>
-    </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM138" t="s">
+        <v>4892</v>
+      </c>
+      <c r="AN138" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085847</v>
+      </c>
+    </row>
+    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -19918,8 +21383,15 @@
       <c r="AJ139">
         <v>44275</v>
       </c>
-    </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM139" t="s">
+        <v>4893</v>
+      </c>
+      <c r="AN139" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085848</v>
+      </c>
+    </row>
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -19953,8 +21425,15 @@
       <c r="AJ140">
         <v>44275</v>
       </c>
-    </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM140" t="s">
+        <v>4894</v>
+      </c>
+      <c r="AN140" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085849</v>
+      </c>
+    </row>
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -19988,8 +21467,15 @@
       <c r="AJ141">
         <v>44275</v>
       </c>
-    </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM141" t="s">
+        <v>4895</v>
+      </c>
+      <c r="AN141" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085850</v>
+      </c>
+    </row>
+    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -20023,8 +21509,15 @@
       <c r="AJ142">
         <v>44275</v>
       </c>
-    </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM142" t="s">
+        <v>4896</v>
+      </c>
+      <c r="AN142" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085851</v>
+      </c>
+    </row>
+    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -20058,8 +21551,15 @@
       <c r="AJ143">
         <v>44275</v>
       </c>
-    </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM143" t="s">
+        <v>4897</v>
+      </c>
+      <c r="AN143" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085852</v>
+      </c>
+    </row>
+    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -20093,8 +21593,15 @@
       <c r="AJ144">
         <v>44275</v>
       </c>
-    </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM144" t="s">
+        <v>4898</v>
+      </c>
+      <c r="AN144" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085853</v>
+      </c>
+    </row>
+    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -20128,8 +21635,15 @@
       <c r="AJ145">
         <v>44275</v>
       </c>
-    </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM145" t="s">
+        <v>4899</v>
+      </c>
+      <c r="AN145" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -20163,8 +21677,15 @@
       <c r="AJ146">
         <v>44275</v>
       </c>
-    </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM146" t="s">
+        <v>4900</v>
+      </c>
+      <c r="AN146" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085856</v>
+      </c>
+    </row>
+    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -20198,8 +21719,15 @@
       <c r="AJ147">
         <v>44275</v>
       </c>
-    </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM147" t="s">
+        <v>4901</v>
+      </c>
+      <c r="AN147" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085857</v>
+      </c>
+    </row>
+    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -20233,8 +21761,15 @@
       <c r="AJ148">
         <v>44275</v>
       </c>
-    </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM148" t="s">
+        <v>4902</v>
+      </c>
+      <c r="AN148" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085858</v>
+      </c>
+    </row>
+    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -20268,8 +21803,15 @@
       <c r="AJ149">
         <v>44275</v>
       </c>
-    </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM149" t="s">
+        <v>4903</v>
+      </c>
+      <c r="AN149" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085859</v>
+      </c>
+    </row>
+    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -20303,8 +21845,15 @@
       <c r="AJ150">
         <v>44275</v>
       </c>
-    </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM150" t="s">
+        <v>4904</v>
+      </c>
+      <c r="AN150" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085860</v>
+      </c>
+    </row>
+    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -20338,8 +21887,15 @@
       <c r="AJ151">
         <v>44275</v>
       </c>
-    </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM151" t="s">
+        <v>4905</v>
+      </c>
+      <c r="AN151" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085861</v>
+      </c>
+    </row>
+    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -20373,8 +21929,15 @@
       <c r="AJ152">
         <v>44275</v>
       </c>
-    </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM152" t="s">
+        <v>4906</v>
+      </c>
+      <c r="AN152" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085862</v>
+      </c>
+    </row>
+    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -20408,8 +21971,15 @@
       <c r="AJ153">
         <v>44275</v>
       </c>
-    </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM153" t="s">
+        <v>4907</v>
+      </c>
+      <c r="AN153" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085878</v>
+      </c>
+    </row>
+    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -20443,8 +22013,15 @@
       <c r="AJ154">
         <v>44275</v>
       </c>
-    </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM154" t="s">
+        <v>4908</v>
+      </c>
+      <c r="AN154" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085879</v>
+      </c>
+    </row>
+    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -20478,8 +22055,15 @@
       <c r="AJ155">
         <v>44275</v>
       </c>
-    </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM155" t="s">
+        <v>4909</v>
+      </c>
+      <c r="AN155" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085881</v>
+      </c>
+    </row>
+    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -20513,8 +22097,15 @@
       <c r="AJ156">
         <v>44275</v>
       </c>
-    </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM156" t="s">
+        <v>4910</v>
+      </c>
+      <c r="AN156" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085882</v>
+      </c>
+    </row>
+    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -20548,8 +22139,15 @@
       <c r="AJ157">
         <v>44275</v>
       </c>
-    </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM157" t="s">
+        <v>4911</v>
+      </c>
+      <c r="AN157" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085883</v>
+      </c>
+    </row>
+    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -20583,8 +22181,15 @@
       <c r="AJ158">
         <v>44275</v>
       </c>
-    </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM158" t="s">
+        <v>4912</v>
+      </c>
+      <c r="AN158" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085884</v>
+      </c>
+    </row>
+    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -20618,8 +22223,15 @@
       <c r="AJ159">
         <v>44275</v>
       </c>
-    </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM159" t="s">
+        <v>4913</v>
+      </c>
+      <c r="AN159" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085885</v>
+      </c>
+    </row>
+    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -20653,8 +22265,15 @@
       <c r="AJ160">
         <v>44275</v>
       </c>
-    </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM160" t="s">
+        <v>4914</v>
+      </c>
+      <c r="AN160" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085886</v>
+      </c>
+    </row>
+    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -20688,8 +22307,15 @@
       <c r="AJ161">
         <v>44275</v>
       </c>
-    </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM161" t="s">
+        <v>4915</v>
+      </c>
+      <c r="AN161" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085887</v>
+      </c>
+    </row>
+    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -20723,8 +22349,15 @@
       <c r="AJ162">
         <v>44275</v>
       </c>
-    </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM162" t="s">
+        <v>4916</v>
+      </c>
+      <c r="AN162" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085888</v>
+      </c>
+    </row>
+    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -20758,8 +22391,15 @@
       <c r="AJ163">
         <v>44275</v>
       </c>
-    </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM163" t="s">
+        <v>4917</v>
+      </c>
+      <c r="AN163" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085889</v>
+      </c>
+    </row>
+    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -20793,8 +22433,15 @@
       <c r="AJ164">
         <v>44275</v>
       </c>
-    </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM164" t="s">
+        <v>4918</v>
+      </c>
+      <c r="AN164" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085891</v>
+      </c>
+    </row>
+    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -20828,8 +22475,15 @@
       <c r="AJ165">
         <v>44275</v>
       </c>
-    </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM165" t="s">
+        <v>4919</v>
+      </c>
+      <c r="AN165" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085892</v>
+      </c>
+    </row>
+    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -20863,8 +22517,15 @@
       <c r="AJ166">
         <v>44275</v>
       </c>
-    </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM166" t="s">
+        <v>4920</v>
+      </c>
+      <c r="AN166" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085893</v>
+      </c>
+    </row>
+    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -20898,8 +22559,15 @@
       <c r="AJ167">
         <v>44275</v>
       </c>
-    </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM167" t="s">
+        <v>4921</v>
+      </c>
+      <c r="AN167" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085894</v>
+      </c>
+    </row>
+    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -20933,8 +22601,15 @@
       <c r="AJ168">
         <v>44275</v>
       </c>
-    </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM168" t="s">
+        <v>4922</v>
+      </c>
+      <c r="AN168" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085895</v>
+      </c>
+    </row>
+    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -20968,8 +22643,15 @@
       <c r="AJ169">
         <v>44275</v>
       </c>
-    </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM169" t="s">
+        <v>4923</v>
+      </c>
+      <c r="AN169" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085897</v>
+      </c>
+    </row>
+    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -21004,7 +22686,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -21038,8 +22720,15 @@
       <c r="AJ171">
         <v>44275</v>
       </c>
-    </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM171" t="s">
+        <v>4924</v>
+      </c>
+      <c r="AN171" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085899</v>
+      </c>
+    </row>
+    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -21073,8 +22762,15 @@
       <c r="AJ172">
         <v>44275</v>
       </c>
-    </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM172" t="s">
+        <v>4925</v>
+      </c>
+      <c r="AN172" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -21108,8 +22804,15 @@
       <c r="AJ173">
         <v>44275</v>
       </c>
-    </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM173" t="s">
+        <v>4926</v>
+      </c>
+      <c r="AN173" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085901</v>
+      </c>
+    </row>
+    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -21143,8 +22846,15 @@
       <c r="AJ174">
         <v>44275</v>
       </c>
-    </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM174" t="s">
+        <v>4927</v>
+      </c>
+      <c r="AN174" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085902</v>
+      </c>
+    </row>
+    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -21178,8 +22888,15 @@
       <c r="AJ175">
         <v>44275</v>
       </c>
-    </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM175" t="s">
+        <v>4928</v>
+      </c>
+      <c r="AN175" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085904</v>
+      </c>
+    </row>
+    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -21213,8 +22930,15 @@
       <c r="AJ176">
         <v>44275</v>
       </c>
-    </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM176" t="s">
+        <v>4929</v>
+      </c>
+      <c r="AN176" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085905</v>
+      </c>
+    </row>
+    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -21248,8 +22972,15 @@
       <c r="AJ177">
         <v>44275</v>
       </c>
-    </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM177" t="s">
+        <v>4930</v>
+      </c>
+      <c r="AN177" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085906</v>
+      </c>
+    </row>
+    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -21283,8 +23014,15 @@
       <c r="AJ178">
         <v>44275</v>
       </c>
-    </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM178" t="s">
+        <v>4931</v>
+      </c>
+      <c r="AN178" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085907</v>
+      </c>
+    </row>
+    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -21318,8 +23056,15 @@
       <c r="AJ179">
         <v>44275</v>
       </c>
-    </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM179" t="s">
+        <v>4932</v>
+      </c>
+      <c r="AN179" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085909</v>
+      </c>
+    </row>
+    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -21353,8 +23098,15 @@
       <c r="AJ180">
         <v>44275</v>
       </c>
-    </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM180" t="s">
+        <v>4933</v>
+      </c>
+      <c r="AN180" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085910</v>
+      </c>
+    </row>
+    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -21388,8 +23140,15 @@
       <c r="AJ181">
         <v>44275</v>
       </c>
-    </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM181" t="s">
+        <v>4934</v>
+      </c>
+      <c r="AN181" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085911</v>
+      </c>
+    </row>
+    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -21423,8 +23182,15 @@
       <c r="AJ182">
         <v>44275</v>
       </c>
-    </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM182" t="s">
+        <v>4935</v>
+      </c>
+      <c r="AN182" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.wikidata.org/wiki/Q106085913</v>
+      </c>
+    </row>
+    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -21504,7 +23270,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -21584,7 +23350,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -21664,7 +23430,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -21744,7 +23510,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -21824,7 +23590,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -21904,7 +23670,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -21984,7 +23750,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -22064,7 +23830,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -22144,7 +23910,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
